--- a/data1.xlsx
+++ b/data1.xlsx
@@ -5,64 +5,50 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karal\Desktop\attendance-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karal\Desktop\projektai\attendance\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12936" windowHeight="5772"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Students" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>group 1</t>
-  </si>
-  <si>
-    <t>group 2</t>
-  </si>
-  <si>
-    <t>group 4</t>
-  </si>
-  <si>
-    <t>Eva</t>
-  </si>
-  <si>
-    <t>Kevin</t>
-  </si>
-  <si>
-    <t>Omar</t>
-  </si>
-  <si>
-    <t>Oscar</t>
-  </si>
-  <si>
-    <t>Kelly</t>
-  </si>
-  <si>
-    <t>Andrew</t>
-  </si>
-  <si>
-    <t>Jackson</t>
-  </si>
-  <si>
-    <t>Jefferson</t>
-  </si>
-  <si>
-    <t>Angela</t>
-  </si>
-  <si>
-    <t>group 3</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="10">
+  <si>
+    <t>groupName</t>
+  </si>
+  <si>
+    <t>name1</t>
+  </si>
+  <si>
+    <t>name2</t>
+  </si>
+  <si>
+    <t>name3</t>
+  </si>
+  <si>
+    <t>name4</t>
+  </si>
+  <si>
+    <t>name5</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>name6</t>
+  </si>
+  <si>
+    <t>name 7</t>
   </si>
 </sst>
 </file>
@@ -72,7 +58,7 @@
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -98,8 +84,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -380,61 +367,116 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.44140625" customWidth="1"/>
+    <col min="2" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
+      <c r="B1" s="1">
+        <v>45123</v>
+      </c>
+      <c r="C1" s="1">
+        <v>45124</v>
+      </c>
+      <c r="D1" s="1">
+        <v>45125</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
